--- a/pearson_tables/tp_netherlands_cumul-2-7.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-7.xlsx
@@ -456,12 +456,14 @@
           <t>SCA_N</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.6192449517570866</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5067454595014338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6610059160766466</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6420243800681312</v>
+        <v>0.634706448907856</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7394520456335832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6141857840906305</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7640687053347205</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6688097976911894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6111581734719537</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5556874495192251</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5544656315398513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6816238997156373</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6432319221850035</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5740425016320204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -535,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6340987807418714</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7011931358902703</v>
+        <v>-0.6304474247132246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6529707668133604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5825370123434787</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5552826396898807</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5055794659284282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6847995803045869</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7319975184931646</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5268164110753942</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
